--- a/Final model results.xlsx
+++ b/Final model results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feyisope/Documents/GitHub/Bone-MRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15B999E2-99AB-E84C-BC44-EC05A48BE69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698797BF-6895-ED49-A17A-95AA9043DFB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="22040" windowHeight="17040" xr2:uid="{6783043C-BF06-C246-9446-2CA28BCE07E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>T1C</t>
   </si>
@@ -51,47 +51,29 @@
     <t>PR AUC</t>
   </si>
   <si>
-    <t>Trial 1</t>
-  </si>
-  <si>
-    <t>Trial 2</t>
-  </si>
-  <si>
-    <t>Trial 3</t>
-  </si>
-  <si>
-    <t>Trial 4</t>
-  </si>
-  <si>
-    <t>Trial 5</t>
-  </si>
-  <si>
-    <t>Trial 6</t>
-  </si>
-  <si>
-    <t>Trial 7</t>
-  </si>
-  <si>
-    <t>Trial 8</t>
-  </si>
-  <si>
-    <t>Trial 9</t>
-  </si>
-  <si>
-    <t>Trial 10</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>95% CI</t>
+    <t>outcome_3</t>
+  </si>
+  <si>
+    <t>outcome_neg</t>
+  </si>
+  <si>
+    <t>outcome_pos</t>
+  </si>
+  <si>
+    <t>interval = z * sqrt( (error * (1 - error)) / n)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>https://www2.ccrb.cuhk.edu.hk/stat/confidence%20interval/Diagnostic%20Statistic.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +86,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,14 +119,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,18 +443,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB443ACF-2EA2-BC47-B438-84B814A27D92}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:7">
       <c r="C1" t="s">
         <v>8</v>
       </c>
@@ -464,239 +466,134 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="M2" t="e">
-        <f>AVERAGE(C2:L2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" s="1" t="e">
-        <f>CONFIDENCE(0.05, STDEV(C2:L2), 10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" t="e">
-        <f t="shared" ref="M3:M18" si="0">AVERAGE(C3:L3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="1" t="e">
-        <f t="shared" ref="N3:N6" si="1">CONFIDENCE(0.05, STDEV(C3:L3), 10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="M4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="M5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="M6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="M8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="1" t="e">
-        <f>CONFIDENCE(0.05, STDEV(C8:L8), 10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" t="s">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="M9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="1" t="e">
-        <f t="shared" ref="N9:N12" si="2">CONFIDENCE(0.05, STDEV(C9:L9), 10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" t="s">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="M10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" t="s">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="M11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" t="s">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="M12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="M14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="1" t="e">
-        <f>CONFIDENCE(0.05, STDEV(C14:L14), 10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" t="s">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="M15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="1" t="e">
-        <f t="shared" ref="N15:N18" si="3">CONFIDENCE(0.05, STDEV(C15:L15), 10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" t="s">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="M16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" t="s">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="M17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" t="s">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="M18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A25" r:id="rId1" display="https://www2.ccrb.cuhk.edu.hk/stat/confidence interval/Diagnostic Statistic.htm" xr:uid="{DC659E4C-33EF-E54F-AE5A-91D4ED03394B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Final model results.xlsx
+++ b/Final model results.xlsx
@@ -8,13 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feyisope/Documents/GitHub/Bone-MRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698797BF-6895-ED49-A17A-95AA9043DFB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957B469D-F468-344E-9F39-DACDDAF5AEB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="22040" windowHeight="17040" xr2:uid="{6783043C-BF06-C246-9446-2CA28BCE07E7}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="24680" windowHeight="17540" xr2:uid="{6783043C-BF06-C246-9446-2CA28BCE07E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Run4" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="N_0_ens">'Run4'!$B$38</definedName>
+    <definedName name="N_0_T1">'Run4'!$B$8</definedName>
+    <definedName name="N_0_T1C">'Run4'!$B$28</definedName>
+    <definedName name="N_0_T2">'Run4'!$B$18</definedName>
+    <definedName name="N_1_ens">'Run4'!$B$37</definedName>
+    <definedName name="N_1_T1">'Run4'!$B$7</definedName>
+    <definedName name="N_1_T1C">'Run4'!$B$27</definedName>
+    <definedName name="N_1_T2">'Run4'!$B$17</definedName>
+    <definedName name="N_ens">'Run4'!$B$39</definedName>
+    <definedName name="N_T1">'Run4'!$B$9</definedName>
+    <definedName name="N_T1C">'Run4'!$B$29</definedName>
+    <definedName name="N_T2">'Run4'!$B$19</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
   <si>
     <t>T1C</t>
   </si>
@@ -33,9 +50,6 @@
     <t>T2</t>
   </si>
   <si>
-    <t>Clinical</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -60,13 +74,55 @@
     <t>outcome_pos</t>
   </si>
   <si>
-    <t>interval = z * sqrt( (error * (1 - error)) / n)</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>https://www2.ccrb.cuhk.edu.hk/stat/confidence%20interval/Diagnostic%20Statistic.htm</t>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>N_1_T1</t>
+  </si>
+  <si>
+    <t>N_0_T1</t>
+  </si>
+  <si>
+    <t>N_T1</t>
+  </si>
+  <si>
+    <t>N_1_T2</t>
+  </si>
+  <si>
+    <t>N_0_T2</t>
+  </si>
+  <si>
+    <t>N_1_T1C</t>
+  </si>
+  <si>
+    <t>N_0_T1C</t>
+  </si>
+  <si>
+    <t>N_T2</t>
+  </si>
+  <si>
+    <t>N_T1C</t>
+  </si>
+  <si>
+    <t>95% CI lower</t>
+  </si>
+  <si>
+    <t>95% CI upper</t>
+  </si>
+  <si>
+    <t>Ensemble (T1,T2)</t>
+  </si>
+  <si>
+    <t>N_1_ens</t>
+  </si>
+  <si>
+    <t>N_0_ens</t>
+  </si>
+  <si>
+    <t>N_ens</t>
   </si>
 </sst>
 </file>
@@ -88,15 +144,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Monaco"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,18 +175,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -144,6 +199,57 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Config"/>
+      <sheetName val="Wilcoxon Table"/>
+      <sheetName val="Mann Table"/>
+      <sheetName val="RSign Table"/>
+      <sheetName val="Runs Table"/>
+      <sheetName val="KS Table"/>
+      <sheetName val="KS2 Table"/>
+      <sheetName val="Lil Table"/>
+      <sheetName val="AD Table"/>
+      <sheetName val="AD2 Table"/>
+      <sheetName val="SW Table"/>
+      <sheetName val="Stud. Q Table"/>
+      <sheetName val="Stud. Q Table 2"/>
+      <sheetName val="Sp Rho Table"/>
+      <sheetName val="Ken Tau Table"/>
+      <sheetName val="Durbin Table"/>
+      <sheetName val="Dunnett Table"/>
+      <sheetName val="Prime"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="AUC_LOWER"/>
+      <definedName name="AUC_UPPER"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,157 +549,1141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB443ACF-2EA2-BC47-B438-84B814A27D92}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="15" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="C1" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>B3-1.96*SQRT((B3*(1-B3))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>B3+1.96*SQRT((B3*(1-B3))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>E3-1.96*SQRT((E3*(1-E3))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>E3+1.96*SQRT((E3*(1-E3))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>H3-1.96*SQRT((H3*(1-H3))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>H3+1.96*SQRT((H3*(1-H3))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>[1]!AUC_LOWER(K3, N_1_T1, N_0_T1, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>[1]!AUC_UPPER(K3, N_1_T1, N_0_T1, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>[1]!AUC_LOWER(N3, N_1_T1, N_0_T1, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>[1]!AUC_UPPER(N3, N_1_T1, N_0_T1, 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>B4-1.96*SQRT((B4*(1-B4))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>B4+1.96*SQRT((B4*(1-B4))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>E4-1.96*SQRT((E4*(1-E4))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>E4+1.96*SQRT((E4*(1-E4))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>H4-1.96*SQRT((H4*(1-H4))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>H4+1.96*SQRT((H4*(1-H4))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>[1]!AUC_LOWER(K4, N_1_T1, N_0_T1, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>[1]!AUC_UPPER(K4, N_1_T1, N_0_T1, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>[1]!AUC_LOWER(N4, N_1_T1, N_0_T1, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>[1]!AUC_UPPER(N4, N_1_T1, N_0_T1, 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>B5-1.96*SQRT((B5*(1-B5))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>B5+1.96*SQRT((B5*(1-B5))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>E5-1.96*SQRT((E5*(1-E5))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>E5+1.96*SQRT((E5*(1-E5))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>H5-1.96*SQRT((H5*(1-H5))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>H5+1.96*SQRT((H5*(1-H5))/N_T1)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>[1]!AUC_LOWER(K5, N_1_T1, N_0_T1, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>[1]!AUC_UPPER(K5, N_1_T1, N_0_T1, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>[1]!AUC_LOWER(N5, N_1_T1, N_0_T1, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>[1]!AUC_UPPER(N5, N_1_T1, N_0_T1, 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
+      <c r="H11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
+      <c r="K11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
+      <c r="N11" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" t="s">
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>B13-1.96*SQRT((B13*(1-B13))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>B13+1.96*SQRT((B13*(1-B13))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>E13-1.96*SQRT((E13*(1-E13))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>E13+1.96*SQRT((E13*(1-E13))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>H13-1.96*SQRT((H13*(1-H13))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>H13+1.96*SQRT((H13*(1-H13))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>[1]!AUC_LOWER(K13, N_1_T2, N_0_T2,0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>[1]!AUC_UPPER(K13, N_1_T2, N_0_T2, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>[1]!AUC_LOWER(N13, N_1_T2, N_0_T2, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>[1]!AUC_UPPER(N13, N_1_T2, N_0_T2, 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>B14-1.96*SQRT((B14*(1-B14))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>B14+1.96*SQRT((B14*(1-B14))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>E14-1.96*SQRT((E14*(1-E14))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>E14+1.96*SQRT((E14*(1-E14))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>H14-1.96*SQRT((H14*(1-H14))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>H14+1.96*SQRT((H14*(1-H14))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>[1]!AUC_LOWER(K14, N_1_T2, N_0_T2,0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>[1]!AUC_UPPER(K14, N_1_T2, N_0_T2, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>[1]!AUC_LOWER(N14, N_1_T2, N_0_T2, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>[1]!AUC_UPPER(N14, N_1_T2, N_0_T2, 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>B15-1.96*SQRT((B15*(1-B15))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>B15+1.96*SQRT((B15*(1-B15))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>E15-1.96*SQRT((E15*(1-E15))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>E15+1.96*SQRT((E15*(1-E15))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>H15-1.96*SQRT((H15*(1-H15))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>H15+1.96*SQRT((H15*(1-H15))/N_T2)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>[1]!AUC_LOWER(K15, N_1_T2, N_0_T2,0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>[1]!AUC_UPPER(K15, N_1_T2, N_0_T2, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>[1]!AUC_LOWER(N15, N_1_T2, N_0_T2, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>[1]!AUC_UPPER(N15, N_1_T2, N_0_T2, 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
+      <c r="H21" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
+      <c r="K21" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
+      <c r="N21" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" t="s">
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>B23-1.96*SQRT((B23*(1-B23))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>B23+1.96*SQRT((B23*(1-B23))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>E23-1.96*SQRT((E23*(1-E23))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>E23+1.96*SQRT((E23*(1-E23))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>H23-1.96*SQRT((H23*(1-H23))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>H23+1.96*SQRT((H23*(1-H23))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>[1]!AUC_LOWER(K23, N_1_T1C, N_0_T1C, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f>[1]!AUC_UPPER(K23, N_1_T1C, N_0_T1C, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>[1]!AUC_LOWER(N23, N_1_T1C, N_0_T1C, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>[1]!AUC_UPPER(N23, N_1_T1C, N_0_T1C, 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f>B24-1.96*SQRT((B24*(1-B24))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>B24+1.96*SQRT((B24*(1-B24))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>E24-1.96*SQRT((E24*(1-E24))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>E24+1.96*SQRT((E24*(1-E24))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>H24-1.96*SQRT((H24*(1-H24))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>H24+1.96*SQRT((H24*(1-H24))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>[1]!AUC_LOWER(K24, N_1_T1C, N_0_T1C, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>[1]!AUC_UPPER(K24, N_1_T1C, N_0_T1C, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>[1]!AUC_LOWER(N24, N_1_T1C, N_0_T1C, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f>[1]!AUC_UPPER(N24, N_1_T1C, N_0_T1C, 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>B25-1.96*SQRT((B25*(1-B25))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>B25+1.96*SQRT((B25*(1-B25))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>E25-1.96*SQRT((E25*(1-E25))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>E25+1.96*SQRT((E25*(1-E25))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>H25-1.96*SQRT((H25*(1-H25))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>H25+1.96*SQRT((H25*(1-H25))/N_T1C)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f>[1]!AUC_LOWER(K25, N_1_T1C, N_0_T1C, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f>[1]!AUC_UPPER(K25, N_1_T1C, N_0_T1C, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f>[1]!AUC_LOWER(N25, N_1_T1C, N_0_T1C, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f>[1]!AUC_UPPER(N25, N_1_T1C, N_0_T1C, 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E31" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="B17" t="s">
+      <c r="H31" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" t="s">
+      <c r="K31" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" t="s">
+      <c r="N31" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" t="s">
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f>B33-1.96*SQRT((B33*(1-B33))/N_ens)</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>B33+1.96*SQRT((B33*(1-B33))/N_ens)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>E33-1.96*SQRT((E33*(1-E33))/N_ens)</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>E33+1.96*SQRT((E33*(1-E33))/N_ens)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>H33-1.96*SQRT((H33*(1-H33))/N_ens)</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>H33+1.96*SQRT((H33*(1-H33))/N_ens)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>[1]!AUC_LOWER(K33, N_1_ens, N_0_ens, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f>[1]!AUC_UPPER(K33, N_1_ens, N_0_ens, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f>[1]!AUC_LOWER(N33, N_1_ens, N_0_ens, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f>[1]!AUC_UPPER(N33, N_1_ens, N_0_ens, 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C35" si="0">B34-1.96*SQRT((B34*(1-B34))/N_ens)</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D35" si="1">B34+1.96*SQRT((B34*(1-B34))/N_ens)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F35" si="2">E34-1.96*SQRT((E34*(1-E34))/N_ens)</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G35" si="3">E34+1.96*SQRT((E34*(1-E34))/N_ens)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I35" si="4">H34-1.96*SQRT((H34*(1-H34))/N_ens)</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:J35" si="5">H34+1.96*SQRT((H34*(1-H34))/N_ens)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>[1]!AUC_LOWER(K34, N_1_ens, N_0_ens, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>[1]!AUC_UPPER(K34, N_1_ens, N_0_ens, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>[1]!AUC_LOWER(N34, N_1_ens, N_0_ens, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>[1]!AUC_UPPER(N34, N_1_ens, N_0_ens, 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>[1]!AUC_LOWER(K35, N_1_ens, N_0_ens, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f>[1]!AUC_UPPER(K35, N_1_ens, N_0_ens, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f>[1]!AUC_LOWER(N35, N_1_ens, N_0_ens, 0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f>[1]!AUC_UPPER(N35, N_1_ens, N_0_ens, 0.05)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A25" r:id="rId1" display="https://www2.ccrb.cuhk.edu.hk/stat/confidence interval/Diagnostic Statistic.htm" xr:uid="{DC659E4C-33EF-E54F-AE5A-91D4ED03394B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>